--- a/raw/DataBaseXLS.xlsx
+++ b/raw/DataBaseXLS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniofleicester-my.sharepoint.com/personal/mjgm2_leicester_ac_uk/Documents/Documents/GitHub/Data-Warehouse/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{00BAE181-EF8E-47D9-ABD2-CC01AA38760A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59882DE3-87CD-4EBA-8814-27F92BCE5523}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{00BAE181-EF8E-47D9-ABD2-CC01AA38760A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4BEBD81-6EAE-4E3C-B870-E63F1D62AC25}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8CE82E65-35D5-4D6F-9B62-98D0C36AB940}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{8CE82E65-35D5-4D6F-9B62-98D0C36AB940}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="348">
   <si>
     <t>cpi</t>
   </si>
@@ -1071,6 +1071,15 @@
   </si>
   <si>
     <t>Personal Consumption Expenditures Excluding Food and Energy (Chain-Type Price Index) (PCEPILFE) | FRED | St. Louis Fed</t>
+  </si>
+  <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>Crude Oil Prices: West Texas Intermediate (WTI)</t>
+  </si>
+  <si>
+    <t>Crude Oil Prices: West Texas Intermediate (WTI) - Cushing, Oklahoma (DCOILWTICO) | FRED | St. Louis Fed</t>
   </si>
 </sst>
 </file>
@@ -1143,13 +1152,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{D725E2AC-F305-4B4C-ABD6-DE5B2221A375}"/>
@@ -5712,13 +5721,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB229B2B-5965-4874-9567-1AD002218C91}">
-  <dimension ref="A1:W290"/>
+  <dimension ref="A1:X290"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="W258" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomRight" activeCell="X293" sqref="X293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5730,33 +5739,33 @@
     <col min="16" max="16" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
       <c r="O1" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -5814,8 +5823,11 @@
       <c r="W2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>300</v>
       </c>
@@ -5836,7 +5848,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5888,8 +5900,11 @@
       <c r="W4" s="2">
         <v>75.796000000000006</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4" s="2">
+        <v>29.5857142857142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5945,8 +5960,11 @@
       <c r="W5" s="2">
         <v>75.930000000000007</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="2">
+        <v>29.609473684210499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6002,8 +6020,11 @@
       <c r="W6" s="2">
         <v>76.009</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" s="2">
+        <v>27.244545454545399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -6059,8 +6080,11 @@
       <c r="W7" s="2">
         <v>76.13</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7" s="2">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -6116,8 +6140,11 @@
       <c r="W8" s="2">
         <v>76.147999999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8" s="2">
+        <v>28.629090909090898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -6173,8 +6200,11 @@
       <c r="W9" s="2">
         <v>76.317999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X9" s="2">
+        <v>27.5990476190476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -6230,8 +6260,11 @@
       <c r="W10" s="2">
         <v>76.515000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10" s="2">
+        <v>26.424761904761901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -6287,8 +6320,11 @@
       <c r="W11" s="2">
         <v>76.552999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11" s="2">
+        <v>27.373913043478201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -6344,8 +6380,11 @@
       <c r="W12" s="2">
         <v>76.117999999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X12" s="2">
+        <v>26.199473684210499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6401,8 +6440,11 @@
       <c r="W13" s="2">
         <v>76.653999999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X13" s="2">
+        <v>22.169565217391298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -6458,8 +6500,11 @@
       <c r="W14" s="2">
         <v>76.81</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14" s="2">
+        <v>19.635000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -6515,8 +6560,11 @@
       <c r="W15" s="2">
         <v>76.828000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X15" s="2">
+        <v>19.388947368421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6579,8 +6627,11 @@
       <c r="W16" s="2">
         <v>76.870999999999995</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" s="2">
+        <v>19.7147619047619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6643,8 +6694,11 @@
       <c r="W17" s="2">
         <v>77.018000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17" s="2">
+        <v>20.723684210526301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6707,8 +6761,11 @@
       <c r="W18" s="2">
         <v>77.11</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18" s="2">
+        <v>24.530999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6771,8 +6828,11 @@
       <c r="W19" s="2">
         <v>77.325000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19" s="2">
+        <v>26.179090909090899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6835,8 +6895,11 @@
       <c r="W20" s="2">
         <v>77.411000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20" s="2">
+        <v>27.041363636363599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6899,8 +6962,11 @@
       <c r="W21" s="2">
         <v>77.534000000000006</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X21" s="2">
+        <v>25.5185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6963,8 +7029,11 @@
       <c r="W22" s="2">
         <v>77.691999999999993</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X22" s="2">
+        <v>26.966190476190398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7027,8 +7096,11 @@
       <c r="W23" s="2">
         <v>77.844999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X23" s="2">
+        <v>28.385000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7091,8 +7163,11 @@
       <c r="W24" s="2">
         <v>77.971999999999994</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X24" s="2">
+        <v>29.663499999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7155,8 +7230,11 @@
       <c r="W25" s="2">
         <v>78.037999999999997</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X25" s="2">
+        <v>28.836521739130401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7219,8 +7297,11 @@
       <c r="W26" s="2">
         <v>78.114000000000004</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X26" s="2">
+        <v>26.352105263157799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -7283,8 +7364,11 @@
       <c r="W27" s="2">
         <v>78.186999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X27" s="2">
+        <v>29.4609523809523</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -7347,8 +7431,11 @@
       <c r="W28" s="2">
         <v>78.239999999999995</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X28" s="2">
+        <v>32.947142857142801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7411,8 +7498,11 @@
       <c r="W29" s="2">
         <v>78.347999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X29" s="2">
+        <v>35.828421052631498</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -7475,8 +7565,11 @@
       <c r="W30" s="2">
         <v>78.474000000000004</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X30" s="2">
+        <v>33.5133333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -7539,8 +7632,11 @@
       <c r="W31" s="2">
         <v>78.561000000000007</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X31" s="2">
+        <v>28.170476190476101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -7603,8 +7699,11 @@
       <c r="W32" s="2">
         <v>78.674000000000007</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X32" s="2">
+        <v>28.108571428571398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -7667,8 +7766,11 @@
       <c r="W33" s="2">
         <v>78.718000000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X33" s="2">
+        <v>30.6623809523809</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -7731,8 +7833,11 @@
       <c r="W34" s="2">
         <v>78.915000000000006</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X34" s="2">
+        <v>30.754545454545401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -7795,8 +7900,11 @@
       <c r="W35" s="2">
         <v>79.004000000000005</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X35" s="2">
+        <v>31.573809523809501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -7859,8 +7967,11 @@
       <c r="W36" s="2">
         <v>79.114000000000004</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X36" s="2">
+        <v>28.3114285714285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -7923,8 +8034,11 @@
       <c r="W37" s="2">
         <v>79.260000000000005</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X37" s="2">
+        <v>30.3382608695652</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -7987,8 +8101,11 @@
       <c r="W38" s="2">
         <v>79.367999999999995</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X38" s="2">
+        <v>31.108333333333299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -8051,8 +8168,11 @@
       <c r="W39" s="2">
         <v>79.466999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X39" s="2">
+        <v>32.129047619047597</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -8115,8 +8235,11 @@
       <c r="W40" s="2">
         <v>79.671000000000006</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X40" s="2">
+        <v>34.31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -8179,8 +8302,11 @@
       <c r="W41" s="2">
         <v>79.8</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X41" s="2">
+        <v>34.684736842105202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -8243,8 +8369,11 @@
       <c r="W42" s="2">
         <v>79.933999999999997</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X42" s="2">
+        <v>36.741304347826002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -8307,8 +8436,11 @@
       <c r="W43" s="2">
         <v>80.141999999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X43" s="2">
+        <v>36.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -8371,8 +8503,11 @@
       <c r="W44" s="2">
         <v>80.251999999999995</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X44" s="2">
+        <v>40.274999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -8435,8 +8570,11 @@
       <c r="W45" s="2">
         <v>80.379000000000005</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X45" s="2">
+        <v>38.025238095238002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -8499,8 +8637,11 @@
       <c r="W46" s="2">
         <v>80.474000000000004</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X46" s="2">
+        <v>40.778095238095197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -8563,8 +8704,11 @@
       <c r="W47" s="2">
         <v>80.504999999999995</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X47" s="2">
+        <v>44.9031818181818</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -8627,8 +8771,11 @@
       <c r="W48" s="2">
         <v>80.656000000000006</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X48" s="2">
+        <v>45.935714285714198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -8691,8 +8838,11 @@
       <c r="W49" s="2">
         <v>80.831000000000003</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X49" s="2">
+        <v>53.280476190476101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -8755,8 +8905,11 @@
       <c r="W50" s="2">
         <v>81.004999999999995</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X50" s="2">
+        <v>48.469000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -8819,8 +8972,11 @@
       <c r="W51" s="2">
         <v>81.108999999999995</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X51" s="2">
+        <v>43.149523809523799</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -8883,8 +9039,11 @@
       <c r="W52" s="2">
         <v>81.400999999999996</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X52" s="2">
+        <v>46.837000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -8947,8 +9106,11 @@
       <c r="W53" s="2">
         <v>81.536000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X53" s="2">
+        <v>48.148947368420998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -9011,8 +9173,11 @@
       <c r="W54" s="2">
         <v>81.736999999999995</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X54" s="2">
+        <v>54.186818181818097</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -9075,8 +9240,11 @@
       <c r="W55" s="2">
         <v>81.831000000000003</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X55" s="2">
+        <v>52.979047619047599</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -9139,8 +9307,11 @@
       <c r="W56" s="2">
         <v>81.998999999999995</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X56" s="2">
+        <v>49.833809523809499</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -9203,8 +9374,11 @@
       <c r="W57" s="2">
         <v>82.055999999999997</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X57" s="2">
+        <v>56.352272727272698</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -9267,8 +9441,11 @@
       <c r="W58" s="2">
         <v>82.176000000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X58" s="2">
+        <v>58.9955</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -9331,8 +9508,11 @@
       <c r="W59" s="2">
         <v>82.242999999999995</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X59" s="2">
+        <v>64.985217391304303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -9395,8 +9575,11 @@
       <c r="W60" s="2">
         <v>82.424999999999997</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X60" s="2">
+        <v>65.586666666666602</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -9459,8 +9642,11 @@
       <c r="W61" s="2">
         <v>82.662000000000006</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X61" s="2">
+        <v>62.26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -9523,8 +9709,11 @@
       <c r="W62" s="2">
         <v>82.873000000000005</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X62" s="2">
+        <v>58.322499999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -9587,8 +9776,11 @@
       <c r="W63" s="2">
         <v>82.959000000000003</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X63" s="2">
+        <v>59.411904761904701</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -9651,8 +9843,11 @@
       <c r="W64" s="2">
         <v>83.144999999999996</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X64" s="2">
+        <v>65.484999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -9715,8 +9910,11 @@
       <c r="W65" s="2">
         <v>83.278999999999996</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X65" s="2">
+        <v>61.631052631578903</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -9779,8 +9977,11 @@
       <c r="W66" s="2">
         <v>83.509</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X66" s="2">
+        <v>62.685217391304299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -9843,8 +10044,11 @@
       <c r="W67" s="2">
         <v>83.763999999999996</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X67" s="2">
+        <v>69.4436842105263</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -9907,8 +10111,11 @@
       <c r="W68" s="2">
         <v>83.974000000000004</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X68" s="2">
+        <v>70.844090909090895</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -9971,8 +10178,11 @@
       <c r="W69" s="2">
         <v>84.186000000000007</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X69" s="2">
+        <v>70.950909090908993</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -10035,8 +10245,11 @@
       <c r="W70" s="2">
         <v>84.268000000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X70" s="2">
+        <v>74.411052631578897</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -10099,8 +10312,11 @@
       <c r="W71" s="2">
         <v>84.44</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X71" s="2">
+        <v>73.043043478260799</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -10163,8 +10379,11 @@
       <c r="W72" s="2">
         <v>84.572999999999993</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X72" s="2">
+        <v>63.798000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -10227,8 +10446,11 @@
       <c r="W73" s="2">
         <v>84.725999999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X73" s="2">
+        <v>58.893181818181802</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -10291,8 +10513,11 @@
       <c r="W74" s="2">
         <v>84.766000000000005</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X74" s="2">
+        <v>59.082500000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -10355,8 +10580,11 @@
       <c r="W75" s="2">
         <v>84.88</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X75" s="2">
+        <v>61.959000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -10419,8 +10647,11 @@
       <c r="W76" s="2">
         <v>85.224000000000004</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X76" s="2">
+        <v>54.506190476190397</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -10483,8 +10714,11 @@
       <c r="W77" s="2">
         <v>85.408000000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X77" s="2">
+        <v>59.278947368421001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -10547,8 +10781,11 @@
       <c r="W78" s="2">
         <v>85.494</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X78" s="2">
+        <v>60.4418181818181</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -10611,8 +10848,11 @@
       <c r="W79" s="2">
         <v>85.616</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X79" s="2">
+        <v>63.976999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -10675,8 +10915,11 @@
       <c r="W80" s="2">
         <v>85.716999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X80" s="2">
+        <v>63.454545454545404</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -10739,8 +10982,11 @@
       <c r="W81" s="2">
         <v>85.858999999999995</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X81" s="2">
+        <v>67.489047619047597</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -10803,8 +11049,11 @@
       <c r="W82" s="2">
         <v>85.988</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X82" s="2">
+        <v>74.117619047619002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -10867,8 +11116,11 @@
       <c r="W83" s="2">
         <v>86.116</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X83" s="2">
+        <v>72.356086956521693</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -10931,8 +11183,11 @@
       <c r="W84" s="2">
         <v>86.350999999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X84" s="2">
+        <v>79.914736842105199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -10995,8 +11250,11 @@
       <c r="W85" s="2">
         <v>86.575999999999993</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X85" s="2">
+        <v>85.798695652173905</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -11059,8 +11317,11 @@
       <c r="W86" s="2">
         <v>86.745999999999995</v>
       </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X86" s="2">
+        <v>94.7723809523809</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -11123,8 +11384,11 @@
       <c r="W87" s="2">
         <v>86.92</v>
       </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X87" s="2">
+        <v>91.686999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -11187,8 +11451,11 @@
       <c r="W88" s="2">
         <v>87.093000000000004</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X88" s="2">
+        <v>92.970476190476106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -11251,8 +11518,11 @@
       <c r="W89" s="2">
         <v>87.177999999999997</v>
       </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X89" s="2">
+        <v>95.385999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -11315,8 +11585,11 @@
       <c r="W90" s="2">
         <v>87.349000000000004</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X90" s="2">
+        <v>105.45399999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -11379,8 +11652,11 @@
       <c r="W91" s="2">
         <v>87.4</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X91" s="2">
+        <v>112.580454545454</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -11443,8 +11719,11 @@
       <c r="W92" s="2">
         <v>87.558999999999997</v>
       </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X92" s="2">
+        <v>125.397619047619</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -11507,8 +11786,11 @@
       <c r="W93" s="2">
         <v>87.76</v>
       </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X93" s="2">
+        <v>133.88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -11571,8 +11853,11 @@
       <c r="W94" s="2">
         <v>87.918000000000006</v>
       </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X94" s="2">
+        <v>133.37090909090901</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -11635,8 +11920,11 @@
       <c r="W95" s="2">
         <v>88.025999999999996</v>
       </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X95" s="2">
+        <v>116.66619047619</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -11699,8 +11987,11 @@
       <c r="W96" s="2">
         <v>88.116</v>
       </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X96" s="2">
+        <v>104.114285714285</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -11763,8 +12054,11 @@
       <c r="W97" s="2">
         <v>87.991</v>
       </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X97" s="2">
+        <v>76.608695652173907</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -11827,8 +12121,11 @@
       <c r="W98" s="2">
         <v>87.951999999999998</v>
       </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X98" s="2">
+        <v>57.309473684210502</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -11891,8 +12188,11 @@
       <c r="W99" s="2">
         <v>87.909000000000006</v>
       </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X99" s="2">
+        <v>41.121818181818099</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -11955,8 +12255,11 @@
       <c r="W100" s="2">
         <v>87.882000000000005</v>
       </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X100" s="2">
+        <v>41.71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -12019,8 +12322,11 @@
       <c r="W101" s="2">
         <v>87.951999999999998</v>
       </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X101" s="2">
+        <v>39.087368421052602</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -12083,8 +12389,11 @@
       <c r="W102" s="2">
         <v>88.015000000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X102" s="2">
+        <v>47.939090909090901</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -12147,8 +12456,11 @@
       <c r="W103" s="2">
         <v>88.210999999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X103" s="2">
+        <v>49.646666666666597</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -12211,8 +12523,11 @@
       <c r="W104" s="2">
         <v>88.278999999999996</v>
       </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X104" s="2">
+        <v>59.028500000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -12275,8 +12590,11 @@
       <c r="W105" s="2">
         <v>88.391999999999996</v>
       </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X105" s="2">
+        <v>69.640909090909005</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -12339,8 +12657,11 @@
       <c r="W106" s="2">
         <v>88.468000000000004</v>
       </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X106" s="2">
+        <v>64.152272727272702</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -12403,8 +12724,11 @@
       <c r="W107" s="2">
         <v>88.599000000000004</v>
       </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X107" s="2">
+        <v>71.044761904761899</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -12467,8 +12791,11 @@
       <c r="W108" s="2">
         <v>88.754999999999995</v>
       </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X108" s="2">
+        <v>69.4080952380952</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -12531,8 +12858,11 @@
       <c r="W109" s="2">
         <v>89.081999999999994</v>
       </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X109" s="2">
+        <v>75.715454545454506</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -12595,8 +12925,11 @@
       <c r="W110" s="2">
         <v>89.16</v>
       </c>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X110" s="2">
+        <v>77.989999999999995</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -12659,8 +12992,11 @@
       <c r="W111" s="2">
         <v>89.236000000000004</v>
       </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X111" s="2">
+        <v>74.47</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -12723,8 +13059,11 @@
       <c r="W112" s="2">
         <v>89.367999999999995</v>
       </c>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X112" s="2">
+        <v>78.325789473684196</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -12787,8 +13126,11 @@
       <c r="W113" s="2">
         <v>89.445999999999998</v>
       </c>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X113" s="2">
+        <v>76.387368421052599</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -12851,8 +13193,11 @@
       <c r="W114" s="2">
         <v>89.578999999999994</v>
       </c>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X114" s="2">
+        <v>81.203478260869502</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -12915,8 +13260,11 @@
       <c r="W115" s="2">
         <v>89.625</v>
       </c>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X115" s="2">
+        <v>84.292857142857102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -12979,8 +13327,11 @@
       <c r="W116" s="2">
         <v>89.724000000000004</v>
       </c>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X116" s="2">
+        <v>73.743499999999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -13043,8 +13394,11 @@
       <c r="W117" s="2">
         <v>89.766999999999996</v>
       </c>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X117" s="2">
+        <v>75.335909090908999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -13107,8 +13461,11 @@
       <c r="W118" s="2">
         <v>89.769000000000005</v>
       </c>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X118" s="2">
+        <v>76.319523809523801</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -13171,8 +13528,11 @@
       <c r="W119" s="2">
         <v>89.855000000000004</v>
       </c>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X119" s="2">
+        <v>76.599090909090904</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -13235,8 +13595,11 @@
       <c r="W120" s="2">
         <v>89.906000000000006</v>
       </c>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X120" s="2">
+        <v>75.241904761904706</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -13299,8 +13662,11 @@
       <c r="W121" s="2">
         <v>90.043000000000006</v>
       </c>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X121" s="2">
+        <v>81.892857142857096</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -13363,8 +13729,11 @@
       <c r="W122" s="2">
         <v>90.16</v>
       </c>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X122" s="2">
+        <v>84.252857142857096</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -13427,8 +13796,11 @@
       <c r="W123" s="2">
         <v>90.179000000000002</v>
       </c>
-    </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X123" s="2">
+        <v>89.145909090909001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -13491,8 +13863,11 @@
       <c r="W124" s="2">
         <v>90.372</v>
       </c>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X124" s="2">
+        <v>89.170500000000004</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -13555,8 +13930,11 @@
       <c r="W125" s="2">
         <v>90.53</v>
       </c>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X125" s="2">
+        <v>88.578421052631498</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -13619,8 +13997,11 @@
       <c r="W126" s="2">
         <v>90.667000000000002</v>
       </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X126" s="2">
+        <v>102.85652173913</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -13683,8 +14064,11 @@
       <c r="W127" s="2">
         <v>90.875</v>
       </c>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X127" s="2">
+        <v>109.5325</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -13747,8 +14131,11 @@
       <c r="W128" s="2">
         <v>91.090999999999994</v>
       </c>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X128" s="2">
+        <v>100.900476190476</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -13811,8 +14198,11 @@
       <c r="W129" s="2">
         <v>91.191000000000003</v>
       </c>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X129" s="2">
+        <v>96.264090909090896</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -13875,8 +14265,11 @@
       <c r="W130" s="2">
         <v>91.325999999999993</v>
       </c>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X130" s="2">
+        <v>97.3035</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -13939,8 +14332,11 @@
       <c r="W131" s="2">
         <v>91.507999999999996</v>
       </c>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X131" s="2">
+        <v>86.333043478260805</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -14003,8 +14399,11 @@
       <c r="W132" s="2">
         <v>91.57</v>
       </c>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X132" s="2">
+        <v>85.515238095238004</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -14067,8 +14466,11 @@
       <c r="W133" s="2">
         <v>91.614000000000004</v>
       </c>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X133" s="2">
+        <v>86.322380952380897</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -14131,8 +14533,11 @@
       <c r="W134" s="2">
         <v>91.808000000000007</v>
       </c>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X134" s="2">
+        <v>97.160476190476103</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -14195,8 +14600,11 @@
       <c r="W135" s="2">
         <v>91.96</v>
       </c>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X135" s="2">
+        <v>98.562857142857098</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -14259,8 +14667,11 @@
       <c r="W136" s="2">
         <v>92.234999999999999</v>
       </c>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X136" s="2">
+        <v>100.2735</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -14323,8 +14734,11 @@
       <c r="W137" s="2">
         <v>92.364000000000004</v>
       </c>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X137" s="2">
+        <v>102.20399999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -14387,8 +14801,11 @@
       <c r="W138" s="2">
         <v>92.521000000000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X138" s="2">
+        <v>106.157727272727</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -14451,8 +14868,11 @@
       <c r="W139" s="2">
         <v>92.661000000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X139" s="2">
+        <v>103.321</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -14515,8 +14935,11 @@
       <c r="W140" s="2">
         <v>92.754999999999995</v>
       </c>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X140" s="2">
+        <v>94.654545454545399</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -14579,8 +15002,11 @@
       <c r="W141" s="2">
         <v>92.85</v>
       </c>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X141" s="2">
+        <v>82.303333333333299</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -14643,8 +15069,11 @@
       <c r="W142" s="2">
         <v>92.945999999999998</v>
       </c>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X142" s="2">
+        <v>87.895238095238</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -14707,8 +15136,11 @@
       <c r="W143" s="2">
         <v>93.004999999999995</v>
       </c>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X143" s="2">
+        <v>94.131304347826003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -14771,8 +15203,11 @@
       <c r="W144" s="2">
         <v>93.119</v>
       </c>
-    </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X144" s="2">
+        <v>94.513684210526307</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -14835,8 +15270,11 @@
       <c r="W145" s="2">
         <v>93.344999999999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X145" s="2">
+        <v>89.491304347826002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -14899,8 +15337,11 @@
       <c r="W146" s="2">
         <v>93.444999999999993</v>
       </c>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X146" s="2">
+        <v>86.531428571428506</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -14963,8 +15404,11 @@
       <c r="W147" s="2">
         <v>93.513999999999996</v>
       </c>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X147" s="2">
+        <v>87.859499999999997</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -15027,8 +15471,11 @@
       <c r="W148" s="2">
         <v>93.703000000000003</v>
       </c>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X148" s="2">
+        <v>94.756666666666604</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -15091,8 +15538,11 @@
       <c r="W149" s="2">
         <v>93.805000000000007</v>
       </c>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X149" s="2">
+        <v>95.308947368421002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -15155,8 +15605,11 @@
       <c r="W150" s="2">
         <v>93.891000000000005</v>
       </c>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X150" s="2">
+        <v>92.938500000000005</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -15219,8 +15672,11 @@
       <c r="W151" s="2">
         <v>93.936999999999998</v>
       </c>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X151" s="2">
+        <v>92.021363636363603</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -15283,8 +15739,11 @@
       <c r="W152" s="2">
         <v>94.046999999999997</v>
       </c>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X152" s="2">
+        <v>94.509545454545403</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -15347,8 +15806,11 @@
       <c r="W153" s="2">
         <v>94.209000000000003</v>
       </c>
-    </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X153" s="2">
+        <v>95.772499999999994</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -15411,8 +15873,11 @@
       <c r="W154" s="2">
         <v>94.328999999999994</v>
       </c>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X154" s="2">
+        <v>104.67090909090901</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -15475,8 +15940,11 @@
       <c r="W155" s="2">
         <v>94.430999999999997</v>
       </c>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X155" s="2">
+        <v>106.57272727272699</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -15539,8 +16007,11 @@
       <c r="W156" s="2">
         <v>94.543000000000006</v>
       </c>
-    </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X156" s="2">
+        <v>106.2895</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -15603,8 +16074,11 @@
       <c r="W157" s="2">
         <v>94.703000000000003</v>
       </c>
-    </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X157" s="2">
+        <v>100.53826086956499</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -15667,8 +16141,11 @@
       <c r="W158" s="2">
         <v>94.86</v>
       </c>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X158" s="2">
+        <v>93.864000000000004</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -15731,8 +16208,11 @@
       <c r="W159" s="2">
         <v>94.960999999999999</v>
       </c>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X159" s="2">
+        <v>97.625238095238004</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -15795,8 +16275,11 @@
       <c r="W160" s="2">
         <v>95.063999999999993</v>
       </c>
-    </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X160" s="2">
+        <v>94.617142857142795</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -15859,8 +16342,11 @@
       <c r="W161" s="2">
         <v>95.108999999999995</v>
       </c>
-    </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X161" s="2">
+        <v>100.817368421052</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -15923,8 +16409,11 @@
       <c r="W162" s="2">
         <v>95.25</v>
       </c>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X162" s="2">
+        <v>100.80380952380899</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -15987,8 +16476,11 @@
       <c r="W163" s="2">
         <v>95.412999999999997</v>
       </c>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X163" s="2">
+        <v>102.069047619047</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -16051,8 +16543,11 @@
       <c r="W164" s="2">
         <v>95.573999999999998</v>
       </c>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X164" s="2">
+        <v>102.177142857142</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -16115,8 +16610,11 @@
       <c r="W165" s="2">
         <v>95.682000000000002</v>
       </c>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X165" s="2">
+        <v>105.794285714285</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -16179,8 +16677,11 @@
       <c r="W166" s="2">
         <v>95.847999999999999</v>
       </c>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X166" s="2">
+        <v>103.588636363636</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -16243,8 +16744,11 @@
       <c r="W167" s="2">
         <v>95.885000000000005</v>
       </c>
-    </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X167" s="2">
+        <v>96.536190476190399</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -16307,8 +16811,11 @@
       <c r="W168" s="2">
         <v>96.013000000000005</v>
       </c>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X168" s="2">
+        <v>93.211904761904705</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -16371,8 +16878,11 @@
       <c r="W169" s="2">
         <v>96.096000000000004</v>
       </c>
-    </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X169" s="2">
+        <v>84.396956521739099</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -16435,8 +16945,11 @@
       <c r="W170" s="2">
         <v>96.180999999999997</v>
       </c>
-    </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X170" s="2">
+        <v>75.789473684210506</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -16499,8 +17012,11 @@
       <c r="W171" s="2">
         <v>96.248999999999995</v>
       </c>
-    </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X171" s="2">
+        <v>59.290454545454502</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -16563,8 +17079,11 @@
       <c r="W172" s="2">
         <v>96.213999999999999</v>
       </c>
-    </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X172" s="2">
+        <v>47.219000000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -16627,8 +17146,11 @@
       <c r="W173" s="2">
         <v>96.323999999999998</v>
       </c>
-    </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X173" s="2">
+        <v>50.584210526315701</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -16691,8 +17213,11 @@
       <c r="W174" s="2">
         <v>96.47</v>
       </c>
-    </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X174" s="2">
+        <v>47.823636363636297</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -16755,8 +17280,11 @@
       <c r="W175" s="2">
         <v>96.647999999999996</v>
       </c>
-    </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X175" s="2">
+        <v>54.452857142857098</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -16819,8 +17347,11 @@
       <c r="W176" s="2">
         <v>96.766000000000005</v>
       </c>
-    </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X176" s="2">
+        <v>59.265000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -16883,8 +17414,11 @@
       <c r="W177" s="2">
         <v>96.882000000000005</v>
       </c>
-    </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X177" s="2">
+        <v>59.819545454545398</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -16947,8 +17481,11 @@
       <c r="W178" s="2">
         <v>96.977999999999994</v>
       </c>
-    </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X178" s="2">
+        <v>50.900909090909003</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -17011,8 +17548,11 @@
       <c r="W179" s="2">
         <v>97.055999999999997</v>
       </c>
-    </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X179" s="2">
+        <v>42.867619047619002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -17075,8 +17615,11 @@
       <c r="W180" s="2">
         <v>97.195999999999998</v>
       </c>
-    </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X180" s="2">
+        <v>45.479523809523798</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -17139,8 +17682,11 @@
       <c r="W181" s="2">
         <v>97.227999999999994</v>
       </c>
-    </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X181" s="2">
+        <v>46.223636363636302</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -17203,8 +17749,11 @@
       <c r="W182" s="2">
         <v>97.331999999999994</v>
       </c>
-    </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X182" s="2">
+        <v>42.4435</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -17267,8 +17816,11 @@
       <c r="W183" s="2">
         <v>97.396000000000001</v>
       </c>
-    </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X183" s="2">
+        <v>37.188636363636299</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -17331,8 +17883,11 @@
       <c r="W184" s="2">
         <v>97.566999999999993</v>
       </c>
-    </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X184" s="2">
+        <v>31.683157894736802</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -17395,8 +17950,11 @@
       <c r="W185" s="2">
         <v>97.736000000000004</v>
       </c>
-    </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X185" s="2">
+        <v>30.323</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -17459,8 +18017,11 @@
       <c r="W186" s="2">
         <v>97.876000000000005</v>
       </c>
-    </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X186" s="2">
+        <v>37.546363636363601</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -17523,8 +18084,11 @@
       <c r="W187" s="2">
         <v>98.117000000000004</v>
       </c>
-    </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X187" s="2">
+        <v>40.755238095237999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>185</v>
       </c>
@@ -17587,8 +18151,11 @@
       <c r="W188" s="2">
         <v>98.284000000000006</v>
       </c>
-    </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X188" s="2">
+        <v>46.712380952380897</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -17651,8 +18218,11 @@
       <c r="W189" s="2">
         <v>98.385999999999996</v>
       </c>
-    </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X189" s="2">
+        <v>48.757272727272699</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -17715,8 +18285,11 @@
       <c r="W190" s="2">
         <v>98.528999999999996</v>
       </c>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X190" s="2">
+        <v>44.651499999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -17779,8 +18352,11 @@
       <c r="W191" s="2">
         <v>98.703000000000003</v>
       </c>
-    </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X191" s="2">
+        <v>44.724347826086898</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>189</v>
       </c>
@@ -17843,8 +18419,11 @@
       <c r="W192" s="2">
         <v>98.834000000000003</v>
       </c>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X192" s="2">
+        <v>45.182380952380903</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>190</v>
       </c>
@@ -17907,8 +18486,11 @@
       <c r="W193" s="2">
         <v>98.960999999999999</v>
       </c>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X193" s="2">
+        <v>49.775238095238002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>191</v>
       </c>
@@ -17971,8 +18553,11 @@
       <c r="W194" s="2">
         <v>99.004999999999995</v>
       </c>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X194" s="2">
+        <v>45.660952380952303</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -18035,8 +18620,11 @@
       <c r="W195" s="2">
         <v>99.12</v>
       </c>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X195" s="2">
+        <v>51.970476190476099</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>193</v>
       </c>
@@ -18099,8 +18687,11 @@
       <c r="W196" s="2">
         <v>99.385000000000005</v>
       </c>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X196" s="2">
+        <v>52.503999999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -18163,8 +18754,11 @@
       <c r="W197" s="2">
         <v>99.561000000000007</v>
       </c>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X197" s="2">
+        <v>53.468421052631498</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>195</v>
       </c>
@@ -18227,8 +18821,11 @@
       <c r="W198" s="2">
         <v>99.519000000000005</v>
       </c>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X198" s="2">
+        <v>49.327826086956499</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>196</v>
       </c>
@@ -18291,8 +18888,11 @@
       <c r="W199" s="2">
         <v>99.722999999999999</v>
       </c>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X199" s="2">
+        <v>51.060526315789403</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>197</v>
       </c>
@@ -18355,8 +18955,11 @@
       <c r="W200" s="2">
         <v>99.802999999999997</v>
       </c>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X200" s="2">
+        <v>48.476363636363601</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>198</v>
       </c>
@@ -18419,8 +19022,11 @@
       <c r="W201" s="2">
         <v>99.936999999999998</v>
       </c>
-    </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X201" s="2">
+        <v>45.177727272727203</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>199</v>
       </c>
@@ -18483,8 +19089,11 @@
       <c r="W202" s="2">
         <v>100.01</v>
       </c>
-    </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X202" s="2">
+        <v>46.630526315789403</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -18547,8 +19156,11 @@
       <c r="W203" s="2">
         <v>100.11799999999999</v>
       </c>
-    </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X203" s="2">
+        <v>48.0369565217391</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>201</v>
       </c>
@@ -18611,8 +19223,11 @@
       <c r="W204" s="2">
         <v>100.24</v>
       </c>
-    </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X204" s="2">
+        <v>49.822000000000003</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>202</v>
       </c>
@@ -18675,8 +19290,11 @@
       <c r="W205" s="2">
         <v>100.486</v>
       </c>
-    </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X205" s="2">
+        <v>51.577727272727202</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -18739,8 +19357,11 @@
       <c r="W206" s="2">
         <v>100.535</v>
       </c>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X206" s="2">
+        <v>56.638571428571403</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -18803,8 +19424,11 @@
       <c r="W207" s="2">
         <v>100.68300000000001</v>
       </c>
-    </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X207" s="2">
+        <v>57.881500000000003</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>205</v>
       </c>
@@ -18867,8 +19491,11 @@
       <c r="W208" s="2">
         <v>101.00700000000001</v>
       </c>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X208" s="2">
+        <v>63.698571428571398</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -18931,8 +19558,11 @@
       <c r="W209" s="2">
         <v>101.19799999999999</v>
       </c>
-    </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X209" s="2">
+        <v>62.229473684210497</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -18995,8 +19625,11 @@
       <c r="W210" s="2">
         <v>101.419</v>
       </c>
-    </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X210" s="2">
+        <v>62.724761904761898</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -19059,8 +19692,11 @@
       <c r="W211" s="2">
         <v>101.602</v>
       </c>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X211" s="2">
+        <v>66.253809523809494</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -19123,8 +19759,11 @@
       <c r="W212" s="2">
         <v>101.78</v>
       </c>
-    </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X212" s="2">
+        <v>69.978181818181795</v>
+      </c>
+    </row>
+    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>210</v>
       </c>
@@ -19187,8 +19826,11 @@
       <c r="W213" s="2">
         <v>101.872</v>
       </c>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X213" s="2">
+        <v>67.873333333333306</v>
+      </c>
+    </row>
+    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>211</v>
       </c>
@@ -19251,8 +19893,11 @@
       <c r="W214" s="2">
         <v>102.006</v>
       </c>
-    </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X214" s="2">
+        <v>70.981428571428495</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>212</v>
       </c>
@@ -19315,8 +19960,11 @@
       <c r="W215" s="2">
         <v>102.01600000000001</v>
       </c>
-    </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X215" s="2">
+        <v>68.055652173913003</v>
+      </c>
+    </row>
+    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -19379,8 +20027,11 @@
       <c r="W216" s="2">
         <v>102.205</v>
       </c>
-    </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X216" s="2">
+        <v>70.232105263157806</v>
+      </c>
+    </row>
+    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -19443,8 +20094,11 @@
       <c r="W217" s="2">
         <v>102.366</v>
       </c>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X217" s="2">
+        <v>70.748695652173893</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>215</v>
       </c>
@@ -19507,8 +20161,11 @@
       <c r="W218" s="2">
         <v>102.556</v>
       </c>
-    </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X218" s="2">
+        <v>56.963500000000003</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -19571,8 +20228,11 @@
       <c r="W219" s="2">
         <v>102.735</v>
       </c>
-    </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X219" s="2">
+        <v>49.522777777777698</v>
+      </c>
+    </row>
+    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>217</v>
       </c>
@@ -19635,8 +20295,11 @@
       <c r="W220" s="2">
         <v>102.87</v>
       </c>
-    </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X220" s="2">
+        <v>51.375714285714203</v>
+      </c>
+    </row>
+    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>218</v>
       </c>
@@ -19699,8 +20362,11 @@
       <c r="W221" s="2">
         <v>102.96299999999999</v>
       </c>
-    </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X221" s="2">
+        <v>54.954736842105198</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>219</v>
       </c>
@@ -19763,8 +20429,11 @@
       <c r="W222" s="2">
         <v>103.05800000000001</v>
       </c>
-    </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X222" s="2">
+        <v>58.151428571428497</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>220</v>
       </c>
@@ -19827,8 +20496,11 @@
       <c r="W223" s="2">
         <v>103.265</v>
       </c>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X223" s="2">
+        <v>63.862380952380903</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>221</v>
       </c>
@@ -19891,8 +20563,11 @@
       <c r="W224" s="2">
         <v>103.371</v>
       </c>
-    </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X224" s="2">
+        <v>60.826818181818098</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>222</v>
       </c>
@@ -19955,8 +20630,11 @@
       <c r="W225" s="2">
         <v>103.56</v>
       </c>
-    </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X225" s="2">
+        <v>54.657499999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>223</v>
       </c>
@@ -20019,8 +20697,11 @@
       <c r="W226" s="2">
         <v>103.678</v>
       </c>
-    </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X226" s="2">
+        <v>57.358095238095203</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -20083,8 +20764,11 @@
       <c r="W227" s="2">
         <v>103.797</v>
       </c>
-    </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X227" s="2">
+        <v>54.805909090908997</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>225</v>
       </c>
@@ -20147,8 +20831,11 @@
       <c r="W228" s="2">
         <v>103.873</v>
       </c>
-    </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X228" s="2">
+        <v>56.947000000000003</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>226</v>
       </c>
@@ -20211,8 +20898,11 @@
       <c r="W229" s="2">
         <v>104.02800000000001</v>
       </c>
-    </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X229" s="2">
+        <v>53.963043478260801</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -20275,8 +20965,11 @@
       <c r="W230" s="2">
         <v>104.092</v>
       </c>
-    </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X230" s="2">
+        <v>57.048947368420997</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -20339,8 +21032,11 @@
       <c r="W231" s="2">
         <v>104.322</v>
       </c>
-    </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X231" s="2">
+        <v>59.816666666666599</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>229</v>
       </c>
@@ -20403,8 +21099,11 @@
       <c r="W232" s="2">
         <v>104.488</v>
       </c>
-    </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X232" s="2">
+        <v>57.519047619047598</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>230</v>
       </c>
@@ -20467,8 +21166,11 @@
       <c r="W233" s="2">
         <v>104.684</v>
       </c>
-    </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X233" s="2">
+        <v>50.542631578947301</v>
+      </c>
+    </row>
+    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>231</v>
       </c>
@@ -20531,8 +21233,11 @@
       <c r="W234" s="2">
         <v>104.596</v>
       </c>
-    </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X234" s="2">
+        <v>29.207727272727201</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>232</v>
       </c>
@@ -20595,8 +21300,11 @@
       <c r="W235" s="2">
         <v>104.256</v>
       </c>
-    </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X235" s="2">
+        <v>16.547619047619001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>233</v>
       </c>
@@ -20659,8 +21367,11 @@
       <c r="W236" s="2">
         <v>104.37</v>
       </c>
-    </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X236" s="2">
+        <v>28.5625</v>
+      </c>
+    </row>
+    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>234</v>
       </c>
@@ -20723,8 +21434,11 @@
       <c r="W237" s="2">
         <v>104.53100000000001</v>
       </c>
-    </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X237" s="2">
+        <v>38.307272727272696</v>
+      </c>
+    </row>
+    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>235</v>
       </c>
@@ -20787,8 +21501,11 @@
       <c r="W238" s="2">
         <v>104.9</v>
       </c>
-    </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X238" s="2">
+        <v>40.710454545454503</v>
+      </c>
+    </row>
+    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>236</v>
       </c>
@@ -20851,8 +21568,11 @@
       <c r="W239" s="2">
         <v>105.235</v>
       </c>
-    </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X239" s="2">
+        <v>42.339047619047598</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>237</v>
       </c>
@@ -20915,8 +21635,11 @@
       <c r="W240" s="2">
         <v>105.395</v>
       </c>
-    </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X240" s="2">
+        <v>39.634285714285703</v>
+      </c>
+    </row>
+    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>238</v>
       </c>
@@ -20979,8 +21702,11 @@
       <c r="W241" s="2">
         <v>105.47</v>
       </c>
-    </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X241" s="2">
+        <v>39.395909090909001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>239</v>
       </c>
@@ -21043,8 +21769,11 @@
       <c r="W242" s="2">
         <v>105.578</v>
       </c>
-    </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X242" s="2">
+        <v>40.937368421052597</v>
+      </c>
+    </row>
+    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>240</v>
       </c>
@@ -21107,8 +21836,11 @@
       <c r="W243" s="2">
         <v>105.904</v>
       </c>
-    </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X243" s="2">
+        <v>47.024999999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>241</v>
       </c>
@@ -21171,8 +21903,11 @@
       <c r="W244" s="2">
         <v>106.244</v>
       </c>
-    </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X244" s="2">
+        <v>52.008421052631498</v>
+      </c>
+    </row>
+    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>242</v>
       </c>
@@ -21235,8 +21970,11 @@
       <c r="W245" s="2">
         <v>106.477</v>
       </c>
-    </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X245" s="2">
+        <v>59.046315789473603</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>243</v>
       </c>
@@ -21299,8 +22037,11 @@
       <c r="W246" s="2">
         <v>106.898</v>
       </c>
-    </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X246" s="2">
+        <v>62.333043478260798</v>
+      </c>
+    </row>
+    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>244</v>
       </c>
@@ -21363,8 +22104,11 @@
       <c r="W247" s="2">
         <v>107.54900000000001</v>
       </c>
-    </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X247" s="2">
+        <v>61.716666666666598</v>
+      </c>
+    </row>
+    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>245</v>
       </c>
@@ -21427,8 +22171,11 @@
       <c r="W248" s="2">
         <v>108.10299999999999</v>
       </c>
-    </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X248" s="2">
+        <v>65.169499999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>246</v>
       </c>
@@ -21491,8 +22238,11 @@
       <c r="W249" s="2">
         <v>108.595</v>
       </c>
-    </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X249" s="2">
+        <v>71.378181818181801</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>247</v>
       </c>
@@ -21555,8 +22305,11 @@
       <c r="W250" s="2">
         <v>109.062</v>
       </c>
-    </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X250" s="2">
+        <v>72.485238095238003</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>248</v>
       </c>
@@ -21619,8 +22372,11 @@
       <c r="W251" s="2">
         <v>109.43600000000001</v>
       </c>
-    </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X251" s="2">
+        <v>67.730454545454506</v>
+      </c>
+    </row>
+    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>249</v>
       </c>
@@ -21683,8 +22439,11 @@
       <c r="W252" s="2">
         <v>109.657</v>
       </c>
-    </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X252" s="2">
+        <v>71.646190476190398</v>
+      </c>
+    </row>
+    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>250</v>
       </c>
@@ -21747,8 +22506,11 @@
       <c r="W253" s="2">
         <v>110.184</v>
       </c>
-    </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X253" s="2">
+        <v>81.476666666666603</v>
+      </c>
+    </row>
+    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>251</v>
       </c>
@@ -21811,8 +22573,11 @@
       <c r="W254" s="2">
         <v>110.792</v>
       </c>
-    </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X254" s="2">
+        <v>79.147499999999994</v>
+      </c>
+    </row>
+    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>252</v>
       </c>
@@ -21875,8 +22640,11 @@
       <c r="W255" s="2">
         <v>111.458</v>
       </c>
-    </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X255" s="2">
+        <v>71.711818181818103</v>
+      </c>
+    </row>
+    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>253</v>
       </c>
@@ -21939,8 +22707,11 @@
       <c r="W256" s="2">
         <v>111.988</v>
       </c>
-    </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X256" s="2">
+        <v>83.221999999999994</v>
+      </c>
+    </row>
+    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>254</v>
       </c>
@@ -22003,8 +22774,11 @@
       <c r="W257" s="2">
         <v>112.492</v>
       </c>
-    </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X257" s="2">
+        <v>91.641052631578901</v>
+      </c>
+    </row>
+    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>255</v>
       </c>
@@ -22067,8 +22841,11 @@
       <c r="W258" s="2">
         <v>112.916</v>
       </c>
-    </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X258" s="2">
+        <v>108.502608695652</v>
+      </c>
+    </row>
+    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>256</v>
       </c>
@@ -22131,8 +22908,11 @@
       <c r="W259" s="2">
         <v>113.301</v>
       </c>
-    </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X259" s="2">
+        <v>101.7775</v>
+      </c>
+    </row>
+    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>257</v>
       </c>
@@ -22195,8 +22975,11 @@
       <c r="W260" s="2">
         <v>113.709</v>
       </c>
-    </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X260" s="2">
+        <v>109.55238095238001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>258</v>
       </c>
@@ -22259,8 +23042,11 @@
       <c r="W261" s="2">
         <v>114.376</v>
       </c>
-    </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X261" s="2">
+        <v>114.837142857142</v>
+      </c>
+    </row>
+    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>259</v>
       </c>
@@ -22323,8 +23109,11 @@
       <c r="W262" s="2">
         <v>114.63800000000001</v>
       </c>
-    </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X262" s="2">
+        <v>101.619</v>
+      </c>
+    </row>
+    <row r="263" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>260</v>
       </c>
@@ -22387,8 +23176,11 @@
       <c r="W263" s="2">
         <v>115.298</v>
       </c>
-    </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X263" s="2">
+        <v>93.665217391304296</v>
+      </c>
+    </row>
+    <row r="264" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>261</v>
       </c>
@@ -22451,8 +23243,11 @@
       <c r="W264" s="2">
         <v>115.80500000000001</v>
       </c>
-    </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X264" s="2">
+        <v>84.258095238095194</v>
+      </c>
+    </row>
+    <row r="265" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>262</v>
       </c>
@@ -22515,8 +23310,11 @@
       <c r="W265" s="2">
         <v>116.2</v>
       </c>
-    </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X265" s="2">
+        <v>87.554761904761904</v>
+      </c>
+    </row>
+    <row r="266" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>263</v>
       </c>
@@ -22579,8 +23377,11 @@
       <c r="W266" s="2">
         <v>116.554</v>
       </c>
-    </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X266" s="2">
+        <v>84.370476190476097</v>
+      </c>
+    </row>
+    <row r="267" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>264</v>
       </c>
@@ -22643,8 +23444,11 @@
       <c r="W267" s="2">
         <v>116.977</v>
       </c>
-    </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X267" s="2">
+        <v>76.437142857142803</v>
+      </c>
+    </row>
+    <row r="268" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>265</v>
       </c>
@@ -22707,8 +23511,11 @@
       <c r="W268" s="2">
         <v>117.526</v>
       </c>
-    </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X268" s="2">
+        <v>78.123000000000005</v>
+      </c>
+    </row>
+    <row r="269" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>266</v>
       </c>
@@ -22771,8 +23578,11 @@
       <c r="W269" s="2">
         <v>117.96299999999999</v>
       </c>
-    </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X269" s="2">
+        <v>76.8326315789473</v>
+      </c>
+    </row>
+    <row r="270" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>267</v>
       </c>
@@ -22835,8 +23645,11 @@
       <c r="W270" s="2">
         <v>118.304</v>
       </c>
-    </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X270" s="2">
+        <v>73.277826086956495</v>
+      </c>
+    </row>
+    <row r="271" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>268</v>
       </c>
@@ -22899,8 +23712,11 @@
       <c r="W271" s="2">
         <v>118.715</v>
       </c>
-    </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X271" s="2">
+        <v>79.446315789473601</v>
+      </c>
+    </row>
+    <row r="272" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>269</v>
       </c>
@@ -22963,8 +23779,11 @@
       <c r="W272" s="2">
         <v>119.063</v>
       </c>
-    </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X272" s="2">
+        <v>71.578181818181804</v>
+      </c>
+    </row>
+    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>270</v>
       </c>
@@ -23027,8 +23846,11 @@
       <c r="W273" s="2">
         <v>119.37</v>
       </c>
-    </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X273" s="2">
+        <v>70.248095238095203</v>
+      </c>
+    </row>
+    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>271</v>
       </c>
@@ -23091,8 +23913,11 @@
       <c r="W274" s="2">
         <v>119.536</v>
       </c>
-    </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X274" s="2">
+        <v>76.069500000000005</v>
+      </c>
+    </row>
+    <row r="275" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>272</v>
       </c>
@@ -23155,8 +23980,11 @@
       <c r="W275" s="2">
         <v>119.658</v>
       </c>
-    </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X275" s="2">
+        <v>81.386086956521694</v>
+      </c>
+    </row>
+    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>273</v>
       </c>
@@ -23219,8 +24047,11 @@
       <c r="W276" s="2">
         <v>120.04</v>
       </c>
-    </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X276" s="2">
+        <v>89.424999999999997</v>
+      </c>
+    </row>
+    <row r="277" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>274</v>
       </c>
@@ -23283,8 +24114,11 @@
       <c r="W277" s="2">
         <v>120.2</v>
       </c>
-    </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X277" s="2">
+        <v>85.639523809523794</v>
+      </c>
+    </row>
+    <row r="278" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>275</v>
       </c>
@@ -23347,8 +24181,11 @@
       <c r="W278" s="2">
         <v>120.309</v>
       </c>
-    </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X278" s="2">
+        <v>77.685000000000002</v>
+      </c>
+    </row>
+    <row r="279" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>276</v>
       </c>
@@ -23411,8 +24248,11 @@
       <c r="W279" s="2">
         <v>120.52800000000001</v>
       </c>
-    </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X279" s="2">
+        <v>71.900000000000006</v>
+      </c>
+    </row>
+    <row r="280" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>277</v>
       </c>
@@ -23475,8 +24315,11 @@
       <c r="W280" s="2">
         <v>121.128</v>
       </c>
-    </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X280" s="2">
+        <v>74.152380952380895</v>
+      </c>
+    </row>
+    <row r="281" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>278</v>
       </c>
@@ -23539,8 +24382,11 @@
       <c r="W281" s="2">
         <v>121.41800000000001</v>
       </c>
-    </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X281" s="2">
+        <v>77.248999999999995</v>
+      </c>
+    </row>
+    <row r="282" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>279</v>
       </c>
@@ -23603,8 +24449,11 @@
       <c r="W282" s="2">
         <v>121.82899999999999</v>
       </c>
-    </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X282" s="2">
+        <v>81.278000000000006</v>
+      </c>
+    </row>
+    <row r="283" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>280</v>
       </c>
@@ -23667,8 +24516,11 @@
       <c r="W283" s="2">
         <v>122.14</v>
       </c>
-    </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X283" s="2">
+        <v>85.347272727272696</v>
+      </c>
+    </row>
+    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>281</v>
       </c>
@@ -23731,8 +24583,11 @@
       <c r="W284" s="2">
         <v>122.239</v>
       </c>
-    </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X284" s="2">
+        <v>80.024545454545404</v>
+      </c>
+    </row>
+    <row r="285" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>282</v>
       </c>
@@ -23795,8 +24650,11 @@
       <c r="W285" s="2">
         <v>122.51</v>
       </c>
-    </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X285" s="2">
+        <v>79.767368421052595</v>
+      </c>
+    </row>
+    <row r="286" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>283</v>
       </c>
@@ -23859,8 +24717,11 @@
       <c r="W286" s="2">
         <v>122.718</v>
       </c>
-    </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X286" s="2">
+        <v>81.8004545454545</v>
+      </c>
+    </row>
+    <row r="287" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>284</v>
       </c>
@@ -23923,8 +24784,11 @@
       <c r="W287" s="2">
         <v>122.91</v>
       </c>
-    </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X287" s="2">
+        <v>76.683181818181794</v>
+      </c>
+    </row>
+    <row r="288" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>285</v>
       </c>
@@ -23987,8 +24851,11 @@
       <c r="W288" s="2">
         <v>123.22199999999999</v>
       </c>
-    </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X288" s="2">
+        <v>70.236000000000004</v>
+      </c>
+    </row>
+    <row r="289" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>286</v>
       </c>
@@ -24043,8 +24910,11 @@
       <c r="U289" s="2">
         <v>315.45400000000001</v>
       </c>
-    </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X289" s="2">
+        <v>71.984999999999999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>287</v>
       </c>
@@ -24063,10 +24933,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1478C746-D467-4B25-B63E-C6A72411F89C}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24096,7 +24966,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>308</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -24113,7 +24983,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="2" t="s">
         <v>289</v>
       </c>
@@ -24128,7 +24998,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2" t="s">
         <v>288</v>
       </c>
@@ -24143,7 +25013,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="2" t="s">
         <v>290</v>
       </c>
@@ -24158,7 +25028,7 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>322</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -24175,7 +25045,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="2" t="s">
         <v>294</v>
       </c>
@@ -24190,7 +25060,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2" t="s">
         <v>297</v>
       </c>
@@ -24205,7 +25075,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="2" t="s">
         <v>303</v>
       </c>
@@ -24220,7 +25090,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2" t="s">
         <v>305</v>
       </c>
@@ -24235,7 +25105,7 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="2" t="s">
         <v>306</v>
       </c>
@@ -24250,7 +25120,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
         <v>307</v>
       </c>
@@ -24278,11 +25148,11 @@
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>310</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -24299,14 +25169,14 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="2" t="s">
         <v>301</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>338</v>
       </c>
     </row>
@@ -24314,14 +25184,14 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="2" t="s">
         <v>295</v>
       </c>
       <c r="D16" t="s">
         <v>339</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>340</v>
       </c>
     </row>
@@ -24329,14 +25199,14 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="2" t="s">
         <v>312</v>
       </c>
       <c r="D17" t="s">
         <v>327</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>341</v>
       </c>
     </row>
@@ -24344,14 +25214,14 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>342</v>
       </c>
     </row>
@@ -24359,14 +25229,14 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="3" t="s">
         <v>343</v>
       </c>
     </row>
@@ -24374,22 +25244,37 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="3" t="s">
         <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" t="s">
+        <v>345</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B6:B12"/>
-    <mergeCell ref="B14:B20"/>
     <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B14:B21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E15" r:id="rId1" display="https://fred.stlouisfed.org/series/USPHCI" xr:uid="{39846F42-55CF-42B9-AB19-A76AC6F72744}"/>
@@ -24398,6 +25283,7 @@
     <hyperlink ref="E18" r:id="rId4" display="https://fred.stlouisfed.org/series/CPIAUCSL" xr:uid="{0B23B2AE-E3C8-4A83-84D8-B2A3A79F6D9E}"/>
     <hyperlink ref="E19" r:id="rId5" display="https://fred.stlouisfed.org/series/PCEPI" xr:uid="{0F581761-22DD-44D4-971F-8EE4AAFAD008}"/>
     <hyperlink ref="E20" r:id="rId6" display="https://fred.stlouisfed.org/series/PCEPILFE" xr:uid="{B9DD6612-1789-425E-9D62-6AA3FDAFA570}"/>
+    <hyperlink ref="E21" r:id="rId7" display="https://fred.stlouisfed.org/series/DCOILWTICO" xr:uid="{27F8FFFB-8D31-4364-83EF-131892E86093}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
